--- a/Aula 13-03.xlsx
+++ b/Aula 13-03.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Aulas\2025\3 - Logística - Tecnologia da Informação Aplicada à Logística\1º Modulo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5DCA291C-B163-4F85-B5E5-A8ADA19F3F04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B5C5294-66C5-49F3-8822-B2AF6A69DE46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="12240" windowHeight="8790" xr2:uid="{2D3ED910-82AB-47AB-B946-1C30E59EB81E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{2D3ED910-82AB-47AB-B946-1C30E59EB81E}"/>
   </bookViews>
   <sheets>
     <sheet name="Básico" sheetId="1" r:id="rId1"/>
+    <sheet name="Boletim" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
   <si>
     <t>Nº 1</t>
   </si>
@@ -117,26 +118,126 @@
   </si>
   <si>
     <t>Menor(A9:B9;2)</t>
+  </si>
+  <si>
+    <t>Fórmulas e Funções Básicas do Excel</t>
+  </si>
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>Notas</t>
+  </si>
+  <si>
+    <t>1º Bim</t>
+  </si>
+  <si>
+    <t>2º Bim</t>
+  </si>
+  <si>
+    <t>3º Bim</t>
+  </si>
+  <si>
+    <t>4º Bim</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Aluno 1</t>
+  </si>
+  <si>
+    <t>Aluno 2</t>
+  </si>
+  <si>
+    <t>Aluno 3</t>
+  </si>
+  <si>
+    <t>Aluno 4</t>
+  </si>
+  <si>
+    <t>Aluno 5</t>
+  </si>
+  <si>
+    <t>Aluno 6</t>
+  </si>
+  <si>
+    <t>Aluno 7</t>
+  </si>
+  <si>
+    <t>Aluno 8</t>
+  </si>
+  <si>
+    <t>Aluno 9</t>
+  </si>
+  <si>
+    <t>Aluno 10</t>
+  </si>
+  <si>
+    <t>Faltas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Consolas"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -151,13 +252,43 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -490,209 +621,713 @@
   <sheetPr>
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.7265625" customWidth="1"/>
+    <col min="1" max="1" width="7.26953125" customWidth="1"/>
+    <col min="3" max="3" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.4">
+      <c r="A1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+    </row>
+    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
         <v>10</v>
       </c>
-      <c r="B2">
+      <c r="B3" s="2">
         <v>5</v>
       </c>
-      <c r="C2">
-        <f>SUM(A2:B2)</f>
+      <c r="C3" s="2">
+        <f>SUM(A3:B3)</f>
         <v>15</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F3" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
         <v>20</v>
       </c>
-      <c r="B3">
+      <c r="B4" s="2">
         <v>5</v>
       </c>
-      <c r="C3">
-        <f>PRODUCT(A3:B3)</f>
+      <c r="C4" s="2">
+        <f>PRODUCT(A4:B4)</f>
         <v>100</v>
       </c>
+      <c r="D4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>30</v>
+      </c>
+      <c r="B5" s="2">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2">
+        <f>A5-B5</f>
+        <v>25</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>40</v>
+      </c>
+      <c r="B6" s="2">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2">
+        <f>AVERAGE(A6:B6)</f>
+        <v>22.5</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>50</v>
+      </c>
+      <c r="B7" s="2">
+        <v>55</v>
+      </c>
+      <c r="C7" s="2">
+        <f>MAX(A7:B7)</f>
+        <v>55</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>60</v>
+      </c>
+      <c r="B8" s="2">
+        <v>55</v>
+      </c>
+      <c r="C8" s="2">
+        <f>MIN(A8:B8)</f>
+        <v>55</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>50</v>
+      </c>
+      <c r="B9" s="2">
+        <v>55</v>
+      </c>
+      <c r="C9" s="2">
+        <f>LARGE(A9:B9,2)</f>
+        <v>50</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>60</v>
+      </c>
+      <c r="B10" s="2">
+        <v>55</v>
+      </c>
+      <c r="C10" s="2">
+        <f>SMALL(A10:B10,2)</f>
+        <v>60</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C558B79-03EB-4C3A-83C3-68A0C84EF521}">
+  <dimension ref="B2:M13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="I2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B3" s="7"/>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4">
+        <v>33</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" t="s">
         <v>30</v>
       </c>
-      <c r="B4">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <f>A4-B4</f>
-        <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="J3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.16155031066225733</v>
+      </c>
+      <c r="D4" s="4">
+        <v>9.33885651729336</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1.3825966453883864</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.53165250529989438</v>
+      </c>
+      <c r="G4" s="5">
+        <f>AVERAGE(C4:F4)</f>
+        <v>2.8536639946609741</v>
+      </c>
+      <c r="H4" s="5">
+        <f>SUM(C4:F4)</f>
+        <v>11.414655978643896</v>
+      </c>
+      <c r="I4" s="9">
+        <v>20.591761524199057</v>
+      </c>
+      <c r="J4" s="9">
+        <v>94.904469638758798</v>
+      </c>
+      <c r="K4" s="9">
+        <v>17.713550996759341</v>
+      </c>
+      <c r="L4" s="9">
+        <v>29.796170573640534</v>
+      </c>
+      <c r="M4" s="9">
+        <f>SUM(I4:L4)</f>
+        <v>163.00595273335773</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="4">
+        <v>2.9892014281731671</v>
+      </c>
+      <c r="D5" s="4">
+        <v>8.3874347648666827</v>
+      </c>
+      <c r="E5" s="4">
+        <v>3.2183386269429102</v>
+      </c>
+      <c r="F5" s="4">
+        <v>9.4930927436727703</v>
+      </c>
+      <c r="G5" s="5">
+        <f t="shared" ref="G5:G13" si="0">AVERAGE(C5:F5)</f>
+        <v>6.022016890913882</v>
+      </c>
+      <c r="H5" s="5">
+        <f t="shared" ref="H5:H13" si="1">SUM(C5:F5)</f>
+        <v>24.088067563655528</v>
+      </c>
+      <c r="I5" s="9">
+        <v>71.605565600489399</v>
+      </c>
+      <c r="J5" s="9">
+        <v>41.05288905592522</v>
+      </c>
+      <c r="K5" s="9">
+        <v>54.343060167544557</v>
+      </c>
+      <c r="L5" s="9">
+        <v>51.030884015864721</v>
+      </c>
+      <c r="M5" s="9">
+        <f t="shared" ref="M5:M13" si="2">SUM(I5:L5)</f>
+        <v>218.03239883982391</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="4">
+        <v>8.8729273171624818</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1.190552251271737E-2</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.71628826433686621</v>
+      </c>
+      <c r="F6" s="4">
+        <v>2.8109567798115629</v>
+      </c>
+      <c r="G6" s="5">
+        <f t="shared" si="0"/>
+        <v>3.1030194709559069</v>
+      </c>
+      <c r="H6" s="5">
+        <f t="shared" si="1"/>
+        <v>12.412077883823628</v>
+      </c>
+      <c r="I6" s="9">
+        <v>7.2387018372471417</v>
+      </c>
+      <c r="J6" s="9">
+        <v>42.490986225583285</v>
+      </c>
+      <c r="K6" s="9">
+        <v>44.385352373558526</v>
+      </c>
+      <c r="L6" s="9">
+        <v>8.2351154400667212</v>
+      </c>
+      <c r="M6" s="9">
+        <f t="shared" si="2"/>
+        <v>102.35015587645567</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="4">
+        <v>6.68424454720029</v>
+      </c>
+      <c r="D7" s="4">
+        <v>4</v>
+      </c>
+      <c r="E7" s="4">
+        <v>3.7081567476485091</v>
+      </c>
+      <c r="F7" s="4">
+        <v>7.6595250823222969</v>
+      </c>
+      <c r="G7" s="5">
+        <f t="shared" si="0"/>
+        <v>5.512981594292774</v>
+      </c>
+      <c r="H7" s="5">
+        <f t="shared" si="1"/>
+        <v>22.051926377171096</v>
+      </c>
+      <c r="I7" s="9">
+        <v>31.622621301986133</v>
+      </c>
+      <c r="J7" s="9">
+        <v>62.258531309532557</v>
+      </c>
+      <c r="K7" s="9">
+        <v>97.893044995133494</v>
+      </c>
+      <c r="L7" s="9">
+        <v>50.83761596509737</v>
+      </c>
+      <c r="M7" s="9">
+        <f t="shared" si="2"/>
+        <v>242.61181357174956</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1.9507902901718388</v>
+      </c>
+      <c r="E8" s="4">
+        <v>3.562551322633456</v>
+      </c>
+      <c r="F8" s="4">
+        <v>7.6791578509584255</v>
+      </c>
+      <c r="G8" s="5">
+        <f t="shared" si="0"/>
+        <v>5.1731248659409301</v>
+      </c>
+      <c r="H8" s="5">
+        <f t="shared" si="1"/>
+        <v>20.692499463763721</v>
+      </c>
+      <c r="I8" s="9">
+        <v>74.130576542449717</v>
+      </c>
+      <c r="J8" s="9">
+        <v>49.747615393092367</v>
+      </c>
+      <c r="K8" s="9">
+        <v>65.787968974164514</v>
+      </c>
+      <c r="L8" s="9">
+        <v>46.741589706434702</v>
+      </c>
+      <c r="M8" s="9">
+        <f t="shared" si="2"/>
+        <v>236.4077506161413</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
         <v>40</v>
       </c>
-      <c r="B5">
-        <v>5</v>
-      </c>
-      <c r="C5">
-        <f>AVERAGE(A5:B5)</f>
-        <v>22.5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>50</v>
-      </c>
-      <c r="B6">
-        <v>55</v>
-      </c>
-      <c r="C6">
-        <f>MAX(A6:B6)</f>
-        <v>55</v>
-      </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>60</v>
-      </c>
-      <c r="B7">
-        <v>55</v>
-      </c>
-      <c r="C7">
-        <f>MIN(A7:B7)</f>
-        <v>55</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>50</v>
-      </c>
-      <c r="B8">
-        <v>55</v>
-      </c>
-      <c r="C8">
-        <f>LARGE(A8:B8,2)</f>
-        <v>50</v>
-      </c>
-      <c r="D8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>60</v>
-      </c>
-      <c r="B9">
-        <v>55</v>
-      </c>
-      <c r="C9">
-        <f>SMALL(A9:B9,2)</f>
-        <v>60</v>
-      </c>
-      <c r="D9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" t="s">
-        <v>25</v>
+      <c r="C9" s="4">
+        <v>1.3706767426351152</v>
+      </c>
+      <c r="D9" s="4">
+        <v>8.077011125753593</v>
+      </c>
+      <c r="E9" s="4">
+        <v>9.1991010021706909</v>
+      </c>
+      <c r="F9" s="4">
+        <v>6.3623610247622313</v>
+      </c>
+      <c r="G9" s="5">
+        <f t="shared" si="0"/>
+        <v>6.2522874738304068</v>
+      </c>
+      <c r="H9" s="5">
+        <f t="shared" si="1"/>
+        <v>25.009149895321627</v>
+      </c>
+      <c r="I9" s="9">
+        <v>79.307349457716597</v>
+      </c>
+      <c r="J9" s="9">
+        <v>23.356551081089961</v>
+      </c>
+      <c r="K9" s="9">
+        <v>76.79432437289762</v>
+      </c>
+      <c r="L9" s="9">
+        <v>91.67461184626066</v>
+      </c>
+      <c r="M9" s="9">
+        <f t="shared" si="2"/>
+        <v>271.13283675796481</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="4">
+        <v>5.7511558350492811</v>
+      </c>
+      <c r="D10" s="4">
+        <v>4.5388707803208082</v>
+      </c>
+      <c r="E10" s="4">
+        <v>4.4877344982486465</v>
+      </c>
+      <c r="F10" s="4">
+        <v>8.173655797026818</v>
+      </c>
+      <c r="G10" s="5">
+        <f t="shared" si="0"/>
+        <v>5.737854227661388</v>
+      </c>
+      <c r="H10" s="5">
+        <f t="shared" si="1"/>
+        <v>22.951416910645552</v>
+      </c>
+      <c r="I10" s="9">
+        <v>25.739880458258202</v>
+      </c>
+      <c r="J10" s="9">
+        <v>10.813933578619405</v>
+      </c>
+      <c r="K10" s="9">
+        <v>12.273958788642958</v>
+      </c>
+      <c r="L10" s="9">
+        <v>99.342192095918264</v>
+      </c>
+      <c r="M10" s="9">
+        <f t="shared" si="2"/>
+        <v>148.16996492143883</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="4">
+        <v>5.0856312514505007</v>
+      </c>
+      <c r="D11" s="4">
+        <v>2.4356178831897592</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.16361350717490675</v>
+      </c>
+      <c r="F11" s="4">
+        <v>3.9481690115218662</v>
+      </c>
+      <c r="G11" s="5">
+        <f t="shared" si="0"/>
+        <v>2.9082579133342583</v>
+      </c>
+      <c r="H11" s="5">
+        <f t="shared" si="1"/>
+        <v>11.633031653337033</v>
+      </c>
+      <c r="I11" s="9">
+        <v>85.176287063501519</v>
+      </c>
+      <c r="J11" s="9">
+        <v>44.554791749877396</v>
+      </c>
+      <c r="K11" s="9">
+        <v>35.469401763683926</v>
+      </c>
+      <c r="L11" s="9">
+        <v>14.188686544792784</v>
+      </c>
+      <c r="M11" s="9">
+        <f t="shared" si="2"/>
+        <v>179.38916712185562</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0.7956543139519523</v>
+      </c>
+      <c r="D12" s="4">
+        <v>8.8523746581283209</v>
+      </c>
+      <c r="E12" s="4">
+        <v>9.00650669851305</v>
+      </c>
+      <c r="F12" s="4">
+        <v>3.6008542268740698</v>
+      </c>
+      <c r="G12" s="5">
+        <f t="shared" si="0"/>
+        <v>5.563847474366848</v>
+      </c>
+      <c r="H12" s="5">
+        <f t="shared" si="1"/>
+        <v>22.255389897467392</v>
+      </c>
+      <c r="I12" s="9">
+        <v>62.273180656880058</v>
+      </c>
+      <c r="J12" s="9">
+        <v>71.111412386054582</v>
+      </c>
+      <c r="K12" s="9">
+        <v>0.86259653616859167</v>
+      </c>
+      <c r="L12" s="9">
+        <v>45.282173279209459</v>
+      </c>
+      <c r="M12" s="9">
+        <f t="shared" si="2"/>
+        <v>179.52936285831265</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="4">
+        <v>7.7521765107928573</v>
+      </c>
+      <c r="D13" s="4">
+        <v>5.314936463526525</v>
+      </c>
+      <c r="E13" s="4">
+        <v>6.9336285208385915</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.49645153930379937</v>
+      </c>
+      <c r="G13" s="5">
+        <f t="shared" si="0"/>
+        <v>5.1242982586154433</v>
+      </c>
+      <c r="H13" s="5">
+        <f t="shared" si="1"/>
+        <v>20.497193034461773</v>
+      </c>
+      <c r="I13" s="9">
+        <v>11.242756424902423</v>
+      </c>
+      <c r="J13" s="9">
+        <v>38.457797356704205</v>
+      </c>
+      <c r="K13" s="9">
+        <v>84.114096912590227</v>
+      </c>
+      <c r="L13" s="9">
+        <v>14.799019311795247</v>
+      </c>
+      <c r="M13" s="9">
+        <f t="shared" si="2"/>
+        <v>148.61367000599211</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:F2"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="C4:F13">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThanOrEqual">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4:L13">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThanOrEqual">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>